--- a/medicine/Enfance/Benjamin_Lacombe/Benjamin_Lacombe.xlsx
+++ b/medicine/Enfance/Benjamin_Lacombe/Benjamin_Lacombe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Benjamin Lacombe est un illustrateur français, auteur de bande dessinée et de littérature jeunesse, né le 12 juillet 1982 à Paris[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Benjamin Lacombe est un illustrateur français, auteur de bande dessinée et de littérature jeunesse, né le 12 juillet 1982 à Paris.
 </t>
         </is>
       </c>
@@ -511,16 +523,18 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2001, Benjamin Lacombe entre à l'École nationale supérieure des arts décoratifs à Paris, où il suit sa formation artistique[1]. Parallèlement à ses études, il travaille en publicité et dans l'animation et signe en 2001 sa première bande dessinée et quelques autres livres illustrés[2]. Son projet de fin d'études, Cerise Griotte, dont il est l'auteur et l'illustrateur, devient son premier livre jeunesse et sort aux Éditions du Seuil jeunesse en mars 2006[2]. 
-Depuis, Benjamin Lacombe a écrit et illustré de nombreux livres. Il a notamment travaillé avec Albin Michel, Barefoot Books (États-Unis), Edelvives (Espagne), Hemingway Korea (Corée), Milan, MaxMilo, Sarbacane, Soleil, Walker Books (États-Unis), les Éditions Margot[3] et le Seuil Jeunesse, éditeur avec lequel il a publié la plupart de ses livres[2].
-Benjamin Lacombe illustre également des classiques de littérature générale ou de jeunesse, dont : les nouvelles des Contes Macabres d’Edgar Allan Poe, dans la traduction de Charles Baudelaire, le roman  Notre-Dame de Paris avec le texte intégral de Victor Hugo, ainsi que Alice au pays des merveilles[4] de Lewis Caroll, ou  Bambi : l'histoire d'une vie dans les bois[5] de Felix Salten, et La petite sirène[6]  de Hans Christian Andersen.
-Des artistes ont travaillé à partir d’œuvres originales de Benjamin Lacombe, comme Julien Martinez, sculpteur et créateur de poupées contemporaines[7], et Emmanuelle Andrieu, de la Maison du vitrail, qui a réalisé un vitrail selon une illustration des Contes Macabres[8].
-Il illustre le premier ouvrage de Sébastien Perez Destins de chiens en 2007[9] ; par la suite, il illustre (et coécrit parfois) plusieurs de ses textes. Il déclare en 2020 : « La collaboration de Sébastien Perez est précieuse. Il trouve les mots que je n'oserais pas écrire. Il est à la fois très différent de moi, et en même temps l'auteur dont je me sens le plus proche. C'est pourquoi nous collaborons si régulièrement ensemble[10]. » Une quinzaine d'ouvrages sont ainsi réalisés ensemble, dont Le chabominable monstre des neiges en 2023, et une série jeunesse, Charlock.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2001, Benjamin Lacombe entre à l'École nationale supérieure des arts décoratifs à Paris, où il suit sa formation artistique. Parallèlement à ses études, il travaille en publicité et dans l'animation et signe en 2001 sa première bande dessinée et quelques autres livres illustrés. Son projet de fin d'études, Cerise Griotte, dont il est l'auteur et l'illustrateur, devient son premier livre jeunesse et sort aux Éditions du Seuil jeunesse en mars 2006. 
+Depuis, Benjamin Lacombe a écrit et illustré de nombreux livres. Il a notamment travaillé avec Albin Michel, Barefoot Books (États-Unis), Edelvives (Espagne), Hemingway Korea (Corée), Milan, MaxMilo, Sarbacane, Soleil, Walker Books (États-Unis), les Éditions Margot et le Seuil Jeunesse, éditeur avec lequel il a publié la plupart de ses livres.
+Benjamin Lacombe illustre également des classiques de littérature générale ou de jeunesse, dont : les nouvelles des Contes Macabres d’Edgar Allan Poe, dans la traduction de Charles Baudelaire, le roman  Notre-Dame de Paris avec le texte intégral de Victor Hugo, ainsi que Alice au pays des merveilles de Lewis Caroll, ou  Bambi : l'histoire d'une vie dans les bois de Felix Salten, et La petite sirène  de Hans Christian Andersen.
+Des artistes ont travaillé à partir d’œuvres originales de Benjamin Lacombe, comme Julien Martinez, sculpteur et créateur de poupées contemporaines, et Emmanuelle Andrieu, de la Maison du vitrail, qui a réalisé un vitrail selon une illustration des Contes Macabres.
+Il illustre le premier ouvrage de Sébastien Perez Destins de chiens en 2007 ; par la suite, il illustre (et coécrit parfois) plusieurs de ses textes. Il déclare en 2020 : « La collaboration de Sébastien Perez est précieuse. Il trouve les mots que je n'oserais pas écrire. Il est à la fois très différent de moi, et en même temps l'auteur dont je me sens le plus proche. C'est pourquoi nous collaborons si régulièrement ensemble. » Une quinzaine d'ouvrages sont ainsi réalisés ensemble, dont Le chabominable monstre des neiges en 2023, et une série jeunesse, Charlock.
 Chaque année, Benjamin Lacombe produit un calendrier comprenant certaines de ses plus récentes œuvres.
-En quinze ans de carrière, l'artiste a vendu, jusqu'en 2020, plus de deux millions de livres[11],[12].
-En 2018, l'exposition « Curiosities » « réunit une centaine d’œuvres issues de ses ouvrages les plus récents (Alice, de l’autre côté du miroir, Carmen, Frida, Les Contes Macabres (vol. 2), Le Magicien d’Oz[11]... ».
+En quinze ans de carrière, l'artiste a vendu, jusqu'en 2020, plus de deux millions de livres,.
+En 2018, l'exposition « Curiosities » « réunit une centaine d’œuvres issues de ses ouvrages les plus récents (Alice, de l’autre côté du miroir, Carmen, Frida, Les Contes Macabres (vol. 2), Le Magicien d’Oz... ».
 </t>
         </is>
       </c>
@@ -549,9 +563,11 @@
           <t>Inspirations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Parmi ses plus grandes influences, Benjamin Lacombe note les peintres du Quattrocento et les primitifs flamands. Il évoque aussi Tim Burton, Guillermo del Toro, Wes Anderson et David Fincher[11]. Les illustrateurs de Walt Disney l'ont aussi influencé dans la création de personnages avec de grands yeux, permettant d'exprimer plus d'émotions. On peut noter également une grande analogie de son œuvre avec celle du peintre américain Mark Ryden.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parmi ses plus grandes influences, Benjamin Lacombe note les peintres du Quattrocento et les primitifs flamands. Il évoque aussi Tim Burton, Guillermo del Toro, Wes Anderson et David Fincher. Les illustrateurs de Walt Disney l'ont aussi influencé dans la création de personnages avec de grands yeux, permettant d'exprimer plus d'émotions. On peut noter également une grande analogie de son œuvre avec celle du peintre américain Mark Ryden.
 </t>
         </is>
       </c>
@@ -580,9 +596,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pour l'année 2018, il est sélectionné pour la deuxième année d'affilée pour le prix suédois Astrid-Lindgren[13].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour l'année 2018, il est sélectionné pour la deuxième année d'affilée pour le prix suédois Astrid-Lindgren.
 </t>
         </is>
       </c>
@@ -613,8 +631,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Illustrations
-Destins de chiens, texte de Sébastien Perez, Max Milo Éditions, avril 2007  (ISBN 978-2-35438-001-4)
+          <t>Illustrations</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Destins de chiens, texte de Sébastien Perez, Max Milo Éditions, avril 2007  (ISBN 978-2-35438-001-4)
 La funeste nuit d'Ernest, coécrit avec Sébastien Perez, Éd. Sarbacane, septembre 2007  (ISBN 978-2-84865-172-9)
 Généalogie d'une sorcière, coécrit avec Sébastien Perez, Éd. Seuil jeunesse, octobre 2008  (ISBN 978-2-02098-358-7)
 Grimoire de sorcières, coécrit avec Sébastien Perez, Éd. Seuil jeunesse, 2008
@@ -624,10 +647,10 @@
 Généalogie d'une sorcière, coécrit avec Sébastien Perez, Éd. Seuil Jeunesse, novembre 2013  (ISBN 979-1023500776)
 Les super-héros détestent les artichauts, coécrit avec Sébastien Perez, Éd. Albin Michel Jeunesse, octobre 2014  (ISBN 978-2226251015)
 Facéties de chats, texte de Sébastien Perez, Éditions Margot, 2015
-Alice au pays des merveilles[4] de Lewis Carroll, traduction de Henri Parisot, Soleil, 2015
+Alice au pays des merveilles de Lewis Carroll, traduction de Henri Parisot, Soleil, 2015
 Alice au pays des merveilles ; De l'autre côté du miroir de Lewis Carroll, traduction de Henri Parisot, Soleil, 2016
 Frida, texte de Sébastien Perez, Albin Michel, 2016 - ouvrage autour de l'artiste Frida Kahlo
-L'ombre du Golem[14], texte de Éliette Abécassis, Flammarion, 2017
+L'ombre du Golem, texte de Éliette Abécassis, Flammarion, 2017
 Le magicien d'Oz, texte de Sébastien Perez, d'après l'histoire et les personnages de L. F. Baum, Albin Michel, 2018
 Série Charlock, texte de avec Sébastien Perez, Flammarion Jeunesse
  La disparition des souris, 2020
@@ -637,13 +660,47 @@
  Le chabominable monstre des neiges, 2023
 Le trésor de Toutouchamon, 2023
 L'étonnante famille Appenzell, texte de Sébastien Perez, Margot, 2020
-Bambi : l'histoire d'une vie dans les bois[5], texte de Felix Salten, traduit de l'allemand par Nicolas Waquet, Albin Michel, 2020
+Bambi : l'histoire d'une vie dans les bois, texte de Felix Salten, traduit de l'allemand par Nicolas Waquet, Albin Michel, 2020
 La meilleure maman du monde, texte de Sébastien Perez, Margot, 2021
 Alice : le carrousel,  d'après Lewis Carroll, Soleil, 2021
-La petite sirène[6], texte de Hans Christian Andersen, traduction du danois par Jean-Baptiste Coursaud, Albin Michel,  2022
-Histoires de femmes samouraï, texte de Sébastien Perez, Oxymore, 2023.
-Autres
-2003
+La petite sirène, texte de Hans Christian Andersen, traduction du danois par Jean-Baptiste Coursaud, Albin Michel,  2022
+Histoires de femmes samouraï, texte de Sébastien Perez, Oxymore, 2023.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Benjamin_Lacombe</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Benjamin_Lacombe</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2003
 Le petit chaperon rouge, Éditions Soleil (2003) -  (ISBN 978-2845657014)
 Le maître chat, Édition Hatier (2003) (Illustration d'un conte de Charles Perrault) - 978-2218999161
 L'esprit du temps tome 1, Édition Soleil (2003) - 978-2845656475
@@ -705,31 +762,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Benjamin_Lacombe</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Benjamin_Lacombe</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Expositions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Benjamin Lacombe expose régulièrement son travail. Il a entre autres été exposé dans les galeries : Ad Hoc Art (New York), L'Art de rien (Paris), Daniel Maghen (Paris), Dorothy Circus (Rome), Maruzen (Tokyo), etc..
 </t>
